--- a/build/website/ValueSet-nmdp-abo-codes.xlsx
+++ b/build/website/ValueSet-nmdp-abo-codes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Property</t>
   </si>
@@ -36,13 +36,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>NMDPABOCodes</t>
+    <t>NMDPABOVS</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>NMDP Codes for Blood Group</t>
+    <t>NMDP Blood Group Value Set</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T09:36:20-05:00</t>
+    <t>2022-05-26T13:36:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>NMDP blood group codes</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -326,27 +329,27 @@
         <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -368,28 +371,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
